--- a/data/trans_dic/RUIDO_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Estudios-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.8943739199310036</v>
+        <v>0.8943739199310037</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.9031138950978204</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8524394696541533</v>
+        <v>0.8513878755091403</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8770369664789825</v>
+        <v>0.8747088724951917</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8766937927328504</v>
+        <v>0.8773677542667846</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9272844165000165</v>
+        <v>0.9262273989317819</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9247641037972382</v>
+        <v>0.9257757731127566</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9192032963580006</v>
+        <v>0.9204544525400095</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7630182986748594</v>
+        <v>0.7630182986748593</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.768829387441701</v>
+        <v>0.7688293874417009</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7658093056110364</v>
+        <v>0.7658093056110366</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7334010615428079</v>
+        <v>0.732725161143097</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7445755879125342</v>
+        <v>0.7425523781278953</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7459296759704689</v>
+        <v>0.7438086848425335</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7921635305504526</v>
+        <v>0.7919957469581138</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7911631094620465</v>
+        <v>0.7920813366903319</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7847010926427371</v>
+        <v>0.7837941322032144</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.6253343407888613</v>
+        <v>0.6253343407888614</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.6971292161118782</v>
+        <v>0.6971292161118784</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.6620897489783028</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5721124647872725</v>
+        <v>0.5664013150256358</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6543713791044503</v>
+        <v>0.650775695837011</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6264320556684246</v>
+        <v>0.6274043152874795</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6744897320539964</v>
+        <v>0.6728546658625369</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7373397489676861</v>
+        <v>0.7327618610304597</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6960277568169267</v>
+        <v>0.6958206319177958</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.7578203146773854</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7850718477240113</v>
+        <v>0.7850718477240112</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7716521741450327</v>
+        <v>0.7716521741450328</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7339111324101877</v>
+        <v>0.7336602410946446</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7686274959056452</v>
+        <v>0.7677601796793267</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7574056080411589</v>
+        <v>0.7576145469087801</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7792789662715305</v>
+        <v>0.7790916897825545</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8019365934279837</v>
+        <v>0.8004497125593323</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.785182055451572</v>
+        <v>0.7852120214069124</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>249049</v>
+        <v>248741</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>366996</v>
+        <v>366022</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>622987</v>
+        <v>623466</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>270915</v>
+        <v>270607</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>386968</v>
+        <v>387391</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>653195</v>
+        <v>654084</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>850948</v>
+        <v>850164</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>798385</v>
+        <v>796216</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1665323</v>
+        <v>1660588</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>919129</v>
+        <v>918934</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>848340</v>
+        <v>849324</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1751882</v>
+        <v>1749857</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>198324</v>
+        <v>196344</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>237948</v>
+        <v>236640</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>444942</v>
+        <v>445633</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>233813</v>
+        <v>233246</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>268117</v>
+        <v>266453</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>494375</v>
+        <v>494227</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1320371</v>
+        <v>1319920</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1425303</v>
+        <v>1423695</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2767134</v>
+        <v>2767897</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1401992</v>
+        <v>1401655</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1487070</v>
+        <v>1484312</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2868613</v>
+        <v>2868723</v>
       </c>
     </row>
     <row r="20">
